--- a/doc/测试计划/程序清单.xlsx
+++ b/doc/测试计划/程序清单.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jaker\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jaker\Desktop\program\Software-manage\doc\测试计划\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5575FC9D-1EF2-40DC-A60C-4A2C31B0BCBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CB17FAB-92B0-4114-A09C-450F7CB31E34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{EC8E1320-4DB1-4990-AFB4-B2527E613C4B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="89">
   <si>
     <t>模块编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -115,10 +115,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>修改成功、修改失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>M2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -300,6 +296,89 @@
   </si>
   <si>
     <t>删除一个记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String deleteUser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MenuTag getSingle</t>
+  </si>
+  <si>
+    <t>List&lt;MenuTag&gt; getAll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;MenuFood&gt; filter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;MenuTag&gt; select</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String updateUser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserBase find</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String signInUserBase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String findUserPassword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String signInUp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String backPwd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String update</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;Administer&gt; getall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Administer find</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String insert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;MenuFood&gt; getAll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MenuFood getSingle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;Log&gt; getAll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Log getSingle</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -668,10 +747,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D429319B-94B4-41D1-886C-98B1FC2093DA}">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -682,9 +761,10 @@
     <col min="4" max="4" width="23.53125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="34.1328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.06640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="42.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -703,8 +783,11 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -723,8 +806,11 @@
       <c r="F2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C3" t="s">
         <v>9</v>
       </c>
@@ -737,8 +823,11 @@
       <c r="F3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C4" t="s">
         <v>11</v>
       </c>
@@ -751,8 +840,11 @@
       <c r="F4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C5" t="s">
         <v>14</v>
       </c>
@@ -765,8 +857,11 @@
       <c r="F5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C6" t="s">
         <v>17</v>
       </c>
@@ -779,363 +874,418 @@
       <c r="F6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
       <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="C9" t="s">
         <v>20</v>
       </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" t="s">
         <v>22</v>
       </c>
-      <c r="F7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="G9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>24</v>
       </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="C10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+        <v>22</v>
+      </c>
+      <c r="G10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C11" t="s">
         <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="F11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+        <v>22</v>
+      </c>
+      <c r="G11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E12" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+        <v>22</v>
+      </c>
+      <c r="G12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E13" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+        <v>36</v>
+      </c>
+      <c r="G13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C14" t="s">
         <v>40</v>
       </c>
       <c r="D14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" t="s">
         <v>35</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F15" t="s">
         <v>36</v>
       </c>
-      <c r="F14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" t="s">
-        <v>42</v>
-      </c>
-      <c r="E15" t="s">
-        <v>43</v>
-      </c>
-      <c r="F15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" t="s">
-        <v>45</v>
-      </c>
+      <c r="G15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C16" t="s">
         <v>46</v>
       </c>
       <c r="D16" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="E16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" t="s">
         <v>36</v>
       </c>
-      <c r="F16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" t="s">
         <v>47</v>
       </c>
-      <c r="D17" t="s">
-        <v>48</v>
-      </c>
       <c r="E17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C18" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E18" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+        <v>36</v>
+      </c>
+      <c r="G18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C19" t="s">
         <v>54</v>
       </c>
       <c r="D19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E19" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="F19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+        <v>36</v>
+      </c>
+      <c r="G19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" t="s">
+        <v>56</v>
+      </c>
       <c r="C20" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D20" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="E20" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="F20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A21" t="s">
-        <v>44</v>
-      </c>
-      <c r="B21" t="s">
-        <v>57</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C21" t="s">
         <v>46</v>
       </c>
       <c r="D21" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="E21" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" t="s">
         <v>43</v>
       </c>
-      <c r="F21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G21" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C22" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D22" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" t="s">
+        <v>50</v>
+      </c>
+      <c r="F22" t="s">
+        <v>43</v>
+      </c>
+      <c r="G22" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="C23" t="s">
         <v>53</v>
       </c>
-      <c r="E22" t="s">
-        <v>53</v>
-      </c>
-      <c r="F22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>52</v>
       </c>
-      <c r="D23" t="s">
-        <v>53</v>
-      </c>
       <c r="E23" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+        <v>43</v>
+      </c>
+      <c r="G23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C24" t="s">
         <v>54</v>
       </c>
       <c r="D24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E24" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="F24" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+        <v>43</v>
+      </c>
+      <c r="G24" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" t="s">
+        <v>58</v>
+      </c>
       <c r="C25" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D25" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="E25" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F25" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A26" t="s">
-        <v>58</v>
-      </c>
-      <c r="B26" t="s">
-        <v>59</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="G25" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D26" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="E26" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F26" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+        <v>64</v>
+      </c>
+      <c r="G26" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C27" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D27" t="s">
         <v>63</v>
       </c>
       <c r="E27" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F27" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+        <v>57</v>
+      </c>
+      <c r="G27" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C28" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E28" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="C29" t="s">
-        <v>68</v>
-      </c>
-      <c r="D29" t="s">
-        <v>64</v>
-      </c>
-      <c r="E29" t="s">
-        <v>12</v>
-      </c>
-      <c r="F29" t="s">
-        <v>58</v>
+        <v>57</v>
+      </c>
+      <c r="G28" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
